--- a/Documents/WBS.xlsx
+++ b/Documents/WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\contracts\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09E51A2-FBF9-4E78-A46B-C56224A90D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C20F05-7846-46B6-87B1-66A7155C8969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,9 +57,6 @@
     <t>ثبت نسخه جدید قرارداد در سیستم</t>
   </si>
   <si>
-    <t>ثبت نسخه 0 قرارداد در سیستم</t>
-  </si>
-  <si>
     <t>تولید فایل پیش نمایش</t>
   </si>
   <si>
@@ -70,6 +67,9 @@
   </si>
   <si>
     <t>ثبت اطلاعات</t>
+  </si>
+  <si>
+    <t>ثبت نسخه 0 نوع قرارداد در سیستم</t>
   </si>
 </sst>
 </file>
@@ -392,8 +392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E12"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,16 +408,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -467,7 +467,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/WBS.xlsx
+++ b/Documents/WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\contracts\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C20F05-7846-46B6-87B1-66A7155C8969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D193A4B9-A9E2-49CC-9F75-D75288A0DFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>افزودن یا ثبت قرارداد</t>
   </si>
@@ -54,9 +54,6 @@
     <t>درج الزامی امضا بودن قرارداد شخص</t>
   </si>
   <si>
-    <t>ثبت نسخه جدید قرارداد در سیستم</t>
-  </si>
-  <si>
     <t>تولید فایل پیش نمایش</t>
   </si>
   <si>
@@ -69,7 +66,16 @@
     <t>ثبت اطلاعات</t>
   </si>
   <si>
-    <t>ثبت نسخه 0 نوع قرارداد در سیستم</t>
+    <t>دریافت لیست تمام قراردادهای موجود در سیستم</t>
+  </si>
+  <si>
+    <t>ثبت درخواست ها در سیستم بصورت دیتابیسی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ثبت قرارداد  نوع جدید در سیستم بصورت دیتابیسی </t>
+  </si>
+  <si>
+    <t>بررسی عدم تطابق های بین درخواست ها بصورت دیتابیسی</t>
   </si>
 </sst>
 </file>
@@ -390,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E12"/>
+  <dimension ref="A2:E14"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,16 +414,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -462,12 +468,22 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
